--- a/data/climate_data_availability/6139_data.xlsx
+++ b/data/climate_data_availability/6139_data.xlsx
@@ -1,24 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20304"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_54147D973A7755B22FEB9AD0537C4762DED7870C" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="23955" windowHeight="11325"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="23955" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" iterateDelta="1E-4"/>
+  <calcPr calcId="179016" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="21">
   <si>
     <t>inventory nr</t>
+  </si>
+  <si>
+    <t>name</t>
   </si>
   <si>
     <t>month</t>
@@ -27,16 +31,13 @@
     <t>year</t>
   </si>
   <si>
-    <t>precip</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
     <t>temp_min</t>
   </si>
   <si>
     <t>temp_max</t>
+  </si>
+  <si>
+    <t>precip</t>
   </si>
   <si>
     <t>psychrometry_temp_dry</t>
@@ -57,10 +58,25 @@
     <t>haut bar. Luc</t>
   </si>
   <si>
-    <t>07.00</t>
+    <t>t1</t>
   </si>
   <si>
-    <t>14.00</t>
+    <t>t2</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>actino</t>
+  </si>
+  <si>
+    <t>hygro</t>
+  </si>
+  <si>
+    <t>Lat</t>
+  </si>
+  <si>
+    <t>Long</t>
   </si>
   <si>
     <t>Kisantu-Cadulac</t>
@@ -69,8 +85,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,7 +133,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="1"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -125,6 +141,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -173,7 +192,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -206,9 +225,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -241,6 +277,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -416,37 +469,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O118"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:T118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M121" sqref="M121"/>
+    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <pane ySplit="1" topLeftCell="D36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
       </c>
       <c r="H1" t="s">
         <v>7</v>
@@ -472,13 +525,28 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2">
         <v>6139</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -519,13 +587,22 @@
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3">
         <v>6139</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -566,13 +643,22 @@
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4">
         <v>6139</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -613,13 +699,22 @@
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5">
         <v>6139</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -660,13 +755,22 @@
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6">
         <v>6139</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C6">
         <v>6</v>
@@ -707,13 +811,22 @@
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7">
         <v>6139</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C7">
         <v>7</v>
@@ -754,13 +867,22 @@
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8">
         <v>6139</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8">
         <v>8</v>
@@ -801,13 +923,22 @@
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9">
         <v>6139</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C9">
         <v>9</v>
@@ -848,13 +979,22 @@
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10">
         <v>6139</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C10">
         <v>10</v>
@@ -895,13 +1035,22 @@
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11">
         <v>6139</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11">
         <v>11</v>
@@ -942,13 +1091,22 @@
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12">
         <v>6139</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C12">
         <v>12</v>
@@ -989,13 +1147,22 @@
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13">
         <v>6139</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1036,13 +1203,22 @@
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14">
         <v>6139</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -1083,13 +1259,22 @@
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15">
         <v>6139</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C15">
         <v>3</v>
@@ -1130,13 +1315,22 @@
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16">
         <v>6139</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C16">
         <v>4</v>
@@ -1177,13 +1371,22 @@
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17">
         <v>6139</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C17">
         <v>5</v>
@@ -1224,13 +1427,22 @@
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18">
         <v>6139</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C18">
         <v>6</v>
@@ -1271,13 +1483,22 @@
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19">
         <v>6139</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C19">
         <v>7</v>
@@ -1318,13 +1539,22 @@
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20">
         <v>6139</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C20">
         <v>8</v>
@@ -1365,13 +1595,22 @@
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21">
         <v>6139</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C21">
         <v>9</v>
@@ -1412,13 +1651,22 @@
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22">
         <v>6139</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C22">
         <v>10</v>
@@ -1459,13 +1707,22 @@
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23">
         <v>6139</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C23">
         <v>11</v>
@@ -1506,13 +1763,22 @@
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24">
         <v>6139</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C24">
         <v>12</v>
@@ -1553,13 +1819,22 @@
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25">
         <v>6139</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -1600,13 +1875,22 @@
       <c r="O25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
       <c r="A26">
         <v>6139</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -1647,13 +1931,22 @@
       <c r="O26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
       <c r="A27">
         <v>6139</v>
       </c>
       <c r="B27" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C27">
         <v>3</v>
@@ -1694,13 +1987,22 @@
       <c r="O27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
       <c r="A28">
         <v>6139</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C28">
         <v>4</v>
@@ -1741,13 +2043,22 @@
       <c r="O28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
       <c r="A29">
         <v>6139</v>
       </c>
       <c r="B29" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C29">
         <v>5</v>
@@ -1788,13 +2099,22 @@
       <c r="O29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
       <c r="A30">
         <v>6139</v>
       </c>
       <c r="B30" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C30">
         <v>6</v>
@@ -1835,13 +2155,22 @@
       <c r="O30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
       <c r="A31">
         <v>6139</v>
       </c>
       <c r="B31" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C31">
         <v>7</v>
@@ -1882,13 +2211,22 @@
       <c r="O31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
       <c r="A32">
         <v>6139</v>
       </c>
       <c r="B32" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C32">
         <v>8</v>
@@ -1929,13 +2267,22 @@
       <c r="O32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
       <c r="A33">
         <v>6139</v>
       </c>
       <c r="B33" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C33">
         <v>9</v>
@@ -1976,13 +2323,22 @@
       <c r="O33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
       <c r="A34">
         <v>6139</v>
       </c>
       <c r="B34" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C34">
         <v>10</v>
@@ -2023,13 +2379,22 @@
       <c r="O34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
       <c r="A35">
         <v>6139</v>
       </c>
       <c r="B35" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C35">
         <v>11</v>
@@ -2070,13 +2435,22 @@
       <c r="O35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
       <c r="A36">
         <v>6139</v>
       </c>
       <c r="B36" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C36">
         <v>12</v>
@@ -2117,13 +2491,22 @@
       <c r="O36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
       <c r="A37">
         <v>6139</v>
       </c>
       <c r="B37" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -2164,13 +2547,22 @@
       <c r="O37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
       <c r="A38">
         <v>6139</v>
       </c>
       <c r="B38" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C38">
         <v>2</v>
@@ -2211,13 +2603,22 @@
       <c r="O38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18">
       <c r="A39">
         <v>6139</v>
       </c>
       <c r="B39" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C39">
         <v>3</v>
@@ -2258,13 +2659,22 @@
       <c r="O39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
       <c r="A40">
         <v>6139</v>
       </c>
       <c r="B40" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C40">
         <v>4</v>
@@ -2305,13 +2715,22 @@
       <c r="O40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18">
       <c r="A41">
         <v>6139</v>
       </c>
       <c r="B41" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C41">
         <v>5</v>
@@ -2352,13 +2771,22 @@
       <c r="O41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18">
       <c r="A42">
         <v>6139</v>
       </c>
       <c r="B42" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C42">
         <v>6</v>
@@ -2399,13 +2827,22 @@
       <c r="O42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18">
       <c r="A43">
         <v>6139</v>
       </c>
       <c r="B43" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C43">
         <v>7</v>
@@ -2446,13 +2883,22 @@
       <c r="O43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18">
       <c r="A44">
         <v>6139</v>
       </c>
       <c r="B44" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C44">
         <v>8</v>
@@ -2493,13 +2939,22 @@
       <c r="O44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18">
       <c r="A45">
         <v>6139</v>
       </c>
       <c r="B45" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C45">
         <v>9</v>
@@ -2540,13 +2995,22 @@
       <c r="O45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18">
       <c r="A46">
         <v>6139</v>
       </c>
       <c r="B46" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C46">
         <v>10</v>
@@ -2587,13 +3051,22 @@
       <c r="O46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18">
       <c r="A47">
         <v>6139</v>
       </c>
       <c r="B47" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C47">
         <v>11</v>
@@ -2634,13 +3107,22 @@
       <c r="O47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18">
       <c r="A48">
         <v>6139</v>
       </c>
       <c r="B48" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C48">
         <v>12</v>
@@ -2681,13 +3163,22 @@
       <c r="O48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+      <c r="R48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18">
       <c r="A49">
         <v>6139</v>
       </c>
       <c r="B49" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -2728,13 +3219,22 @@
       <c r="O49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18">
       <c r="A50">
         <v>6139</v>
       </c>
       <c r="B50" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C50">
         <v>2</v>
@@ -2775,13 +3275,22 @@
       <c r="O50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18">
       <c r="A51">
         <v>6139</v>
       </c>
       <c r="B51" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C51">
         <v>3</v>
@@ -2822,13 +3331,22 @@
       <c r="O51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="R51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18">
       <c r="A52">
         <v>6139</v>
       </c>
       <c r="B52" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C52">
         <v>4</v>
@@ -2869,13 +3387,22 @@
       <c r="O52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="R52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18">
       <c r="A53">
         <v>6139</v>
       </c>
       <c r="B53" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C53">
         <v>5</v>
@@ -2916,13 +3443,22 @@
       <c r="O53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
+      <c r="R53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18">
       <c r="A54">
         <v>6139</v>
       </c>
       <c r="B54" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C54">
         <v>6</v>
@@ -2963,13 +3499,22 @@
       <c r="O54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="R54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18">
       <c r="A55">
         <v>6139</v>
       </c>
       <c r="B55" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C55">
         <v>7</v>
@@ -3010,13 +3555,22 @@
       <c r="O55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+      <c r="R55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18">
       <c r="A56">
         <v>6139</v>
       </c>
       <c r="B56" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C56">
         <v>8</v>
@@ -3057,13 +3611,22 @@
       <c r="O56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+      <c r="R56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18">
       <c r="A57">
         <v>6139</v>
       </c>
       <c r="B57" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C57">
         <v>9</v>
@@ -3104,13 +3667,22 @@
       <c r="O57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>0</v>
+      </c>
+      <c r="R57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18">
       <c r="A58">
         <v>6139</v>
       </c>
       <c r="B58" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C58">
         <v>10</v>
@@ -3151,13 +3723,22 @@
       <c r="O58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+      <c r="R58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18">
       <c r="A59">
         <v>6139</v>
       </c>
       <c r="B59" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C59">
         <v>11</v>
@@ -3198,13 +3779,22 @@
       <c r="O59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P59">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>0</v>
+      </c>
+      <c r="R59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18">
       <c r="A60">
         <v>6139</v>
       </c>
       <c r="B60" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C60">
         <v>12</v>
@@ -3245,13 +3835,22 @@
       <c r="O60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+      <c r="R60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18">
       <c r="A61">
         <v>6139</v>
       </c>
       <c r="B61" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -3292,13 +3891,22 @@
       <c r="O61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
+      </c>
+      <c r="R61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18">
       <c r="A62">
         <v>6139</v>
       </c>
       <c r="B62" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C62">
         <v>2</v>
@@ -3339,13 +3947,22 @@
       <c r="O62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+      <c r="R62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18">
       <c r="A63">
         <v>6139</v>
       </c>
       <c r="B63" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C63">
         <v>3</v>
@@ -3386,13 +4003,22 @@
       <c r="O63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>0</v>
+      </c>
+      <c r="R63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18">
       <c r="A64">
         <v>6139</v>
       </c>
       <c r="B64" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C64">
         <v>4</v>
@@ -3433,13 +4059,22 @@
       <c r="O64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>0</v>
+      </c>
+      <c r="R64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18">
       <c r="A65">
         <v>6139</v>
       </c>
       <c r="B65" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C65">
         <v>5</v>
@@ -3480,13 +4115,22 @@
       <c r="O65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P65">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>0</v>
+      </c>
+      <c r="R65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18">
       <c r="A66">
         <v>6139</v>
       </c>
       <c r="B66" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C66">
         <v>6</v>
@@ -3527,13 +4171,22 @@
       <c r="O66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
+      </c>
+      <c r="R66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18">
       <c r="A67">
         <v>6139</v>
       </c>
       <c r="B67" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C67">
         <v>7</v>
@@ -3574,13 +4227,22 @@
       <c r="O67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P67">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>0</v>
+      </c>
+      <c r="R67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18">
       <c r="A68">
         <v>6139</v>
       </c>
       <c r="B68" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C68">
         <v>8</v>
@@ -3621,13 +4283,22 @@
       <c r="O68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P68">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
+      <c r="R68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18">
       <c r="A69">
         <v>6139</v>
       </c>
       <c r="B69" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C69">
         <v>9</v>
@@ -3668,13 +4339,22 @@
       <c r="O69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>0</v>
+      </c>
+      <c r="R69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18">
       <c r="A70">
         <v>6139</v>
       </c>
       <c r="B70" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C70">
         <v>10</v>
@@ -3715,13 +4395,22 @@
       <c r="O70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P70">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+      <c r="R70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18">
       <c r="A71">
         <v>6139</v>
       </c>
       <c r="B71" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C71">
         <v>11</v>
@@ -3762,13 +4451,22 @@
       <c r="O71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P71">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
+      <c r="R71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18">
       <c r="A72">
         <v>6139</v>
       </c>
       <c r="B72" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C72">
         <v>12</v>
@@ -3809,13 +4507,22 @@
       <c r="O72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P72">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>0</v>
+      </c>
+      <c r="R72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18">
       <c r="A73">
         <v>6139</v>
       </c>
       <c r="B73" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -3856,13 +4563,22 @@
       <c r="O73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P73">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>0</v>
+      </c>
+      <c r="R73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18">
       <c r="A74">
         <v>6139</v>
       </c>
       <c r="B74" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C74">
         <v>2</v>
@@ -3903,13 +4619,22 @@
       <c r="O74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P74">
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+      <c r="R74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18">
       <c r="A75">
         <v>6139</v>
       </c>
       <c r="B75" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C75">
         <v>3</v>
@@ -3950,13 +4675,22 @@
       <c r="O75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P75">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
+      </c>
+      <c r="R75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18">
       <c r="A76">
         <v>6139</v>
       </c>
       <c r="B76" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C76">
         <v>4</v>
@@ -3997,13 +4731,22 @@
       <c r="O76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P76">
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <v>0</v>
+      </c>
+      <c r="R76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18">
       <c r="A77">
         <v>6139</v>
       </c>
       <c r="B77" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C77">
         <v>5</v>
@@ -4044,13 +4787,22 @@
       <c r="O77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P77">
+        <v>0</v>
+      </c>
+      <c r="Q77">
+        <v>0</v>
+      </c>
+      <c r="R77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18">
       <c r="A78">
         <v>6139</v>
       </c>
       <c r="B78" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C78">
         <v>6</v>
@@ -4091,13 +4843,22 @@
       <c r="O78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P78">
+        <v>0</v>
+      </c>
+      <c r="Q78">
+        <v>0</v>
+      </c>
+      <c r="R78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18">
       <c r="A79">
         <v>6139</v>
       </c>
       <c r="B79" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C79">
         <v>7</v>
@@ -4138,13 +4899,22 @@
       <c r="O79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P79">
+        <v>0</v>
+      </c>
+      <c r="Q79">
+        <v>0</v>
+      </c>
+      <c r="R79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18">
       <c r="A80">
         <v>6139</v>
       </c>
       <c r="B80" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C80">
         <v>8</v>
@@ -4185,13 +4955,22 @@
       <c r="O80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P80">
+        <v>0</v>
+      </c>
+      <c r="Q80">
+        <v>0</v>
+      </c>
+      <c r="R80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18">
       <c r="A81">
         <v>6139</v>
       </c>
       <c r="B81" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C81">
         <v>9</v>
@@ -4232,13 +5011,22 @@
       <c r="O81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P81">
+        <v>0</v>
+      </c>
+      <c r="Q81">
+        <v>0</v>
+      </c>
+      <c r="R81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18">
       <c r="A82">
         <v>6139</v>
       </c>
       <c r="B82" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C82">
         <v>10</v>
@@ -4279,13 +5067,22 @@
       <c r="O82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P82">
+        <v>0</v>
+      </c>
+      <c r="Q82">
+        <v>0</v>
+      </c>
+      <c r="R82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18">
       <c r="A83">
         <v>6139</v>
       </c>
       <c r="B83" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C83">
         <v>11</v>
@@ -4326,13 +5123,22 @@
       <c r="O83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P83">
+        <v>0</v>
+      </c>
+      <c r="Q83">
+        <v>0</v>
+      </c>
+      <c r="R83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18">
       <c r="A84">
         <v>6139</v>
       </c>
       <c r="B84" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C84">
         <v>12</v>
@@ -4373,13 +5179,22 @@
       <c r="O84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P84">
+        <v>0</v>
+      </c>
+      <c r="Q84">
+        <v>0</v>
+      </c>
+      <c r="R84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18">
       <c r="A85">
         <v>6139</v>
       </c>
       <c r="B85" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -4420,13 +5235,22 @@
       <c r="O85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P85">
+        <v>0</v>
+      </c>
+      <c r="Q85">
+        <v>0</v>
+      </c>
+      <c r="R85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18">
       <c r="A86">
         <v>6139</v>
       </c>
       <c r="B86" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C86">
         <v>2</v>
@@ -4467,13 +5291,22 @@
       <c r="O86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P86">
+        <v>0</v>
+      </c>
+      <c r="Q86">
+        <v>0</v>
+      </c>
+      <c r="R86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18">
       <c r="A87">
         <v>6139</v>
       </c>
       <c r="B87" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C87">
         <v>3</v>
@@ -4514,13 +5347,22 @@
       <c r="O87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P87">
+        <v>0</v>
+      </c>
+      <c r="Q87">
+        <v>0</v>
+      </c>
+      <c r="R87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18">
       <c r="A88">
         <v>6139</v>
       </c>
       <c r="B88" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C88">
         <v>4</v>
@@ -4561,13 +5403,22 @@
       <c r="O88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P88">
+        <v>0</v>
+      </c>
+      <c r="Q88">
+        <v>0</v>
+      </c>
+      <c r="R88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18">
       <c r="A89">
         <v>6139</v>
       </c>
       <c r="B89" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C89">
         <v>5</v>
@@ -4608,13 +5459,22 @@
       <c r="O89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P89">
+        <v>0</v>
+      </c>
+      <c r="Q89">
+        <v>0</v>
+      </c>
+      <c r="R89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18">
       <c r="A90">
         <v>6139</v>
       </c>
       <c r="B90" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C90">
         <v>6</v>
@@ -4655,13 +5515,22 @@
       <c r="O90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P90">
+        <v>0</v>
+      </c>
+      <c r="Q90">
+        <v>0</v>
+      </c>
+      <c r="R90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18">
       <c r="A91">
         <v>6139</v>
       </c>
       <c r="B91" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C91">
         <v>7</v>
@@ -4702,13 +5571,22 @@
       <c r="O91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P91">
+        <v>0</v>
+      </c>
+      <c r="Q91">
+        <v>0</v>
+      </c>
+      <c r="R91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18">
       <c r="A92">
         <v>6139</v>
       </c>
       <c r="B92" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C92">
         <v>11</v>
@@ -4749,13 +5627,22 @@
       <c r="O92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P92">
+        <v>0</v>
+      </c>
+      <c r="Q92">
+        <v>0</v>
+      </c>
+      <c r="R92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18">
       <c r="A93">
         <v>6139</v>
       </c>
       <c r="B93" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C93">
         <v>12</v>
@@ -4796,13 +5683,22 @@
       <c r="O93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P93">
+        <v>0</v>
+      </c>
+      <c r="Q93">
+        <v>0</v>
+      </c>
+      <c r="R93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18">
       <c r="A94">
         <v>6139</v>
       </c>
       <c r="B94" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C94">
         <v>2</v>
@@ -4843,13 +5739,22 @@
       <c r="O94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P94">
+        <v>0</v>
+      </c>
+      <c r="Q94">
+        <v>0</v>
+      </c>
+      <c r="R94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18">
       <c r="A95">
         <v>6139</v>
       </c>
       <c r="B95" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C95">
         <v>3</v>
@@ -4890,13 +5795,22 @@
       <c r="O95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P95">
+        <v>0</v>
+      </c>
+      <c r="Q95">
+        <v>0</v>
+      </c>
+      <c r="R95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18">
       <c r="A96">
         <v>6139</v>
       </c>
       <c r="B96" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C96">
         <v>4</v>
@@ -4937,13 +5851,22 @@
       <c r="O96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P96">
+        <v>0</v>
+      </c>
+      <c r="Q96">
+        <v>0</v>
+      </c>
+      <c r="R96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18">
       <c r="A97">
         <v>6139</v>
       </c>
       <c r="B97" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C97">
         <v>3</v>
@@ -4984,13 +5907,22 @@
       <c r="O97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P97">
+        <v>0</v>
+      </c>
+      <c r="Q97">
+        <v>0</v>
+      </c>
+      <c r="R97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18">
       <c r="A98">
         <v>6139</v>
       </c>
       <c r="B98" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C98">
         <v>4</v>
@@ -5031,13 +5963,22 @@
       <c r="O98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P98">
+        <v>0</v>
+      </c>
+      <c r="Q98">
+        <v>0</v>
+      </c>
+      <c r="R98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18">
       <c r="A99">
         <v>6139</v>
       </c>
       <c r="B99" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C99">
         <v>6</v>
@@ -5078,13 +6019,22 @@
       <c r="O99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P99">
+        <v>0</v>
+      </c>
+      <c r="Q99">
+        <v>0</v>
+      </c>
+      <c r="R99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18">
       <c r="A100">
         <v>6139</v>
       </c>
       <c r="B100" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C100">
         <v>9</v>
@@ -5125,13 +6075,22 @@
       <c r="O100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P100">
+        <v>0</v>
+      </c>
+      <c r="Q100">
+        <v>0</v>
+      </c>
+      <c r="R100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18">
       <c r="A101">
         <v>6139</v>
       </c>
       <c r="B101" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C101">
         <v>10</v>
@@ -5172,13 +6131,22 @@
       <c r="O101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P101">
+        <v>0</v>
+      </c>
+      <c r="Q101">
+        <v>0</v>
+      </c>
+      <c r="R101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18">
       <c r="A102">
         <v>6139</v>
       </c>
       <c r="B102" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C102">
         <v>11</v>
@@ -5219,13 +6187,22 @@
       <c r="O102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P102">
+        <v>0</v>
+      </c>
+      <c r="Q102">
+        <v>0</v>
+      </c>
+      <c r="R102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18">
       <c r="A103">
         <v>6139</v>
       </c>
       <c r="B103" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C103">
         <v>12</v>
@@ -5266,13 +6243,22 @@
       <c r="O103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P103">
+        <v>0</v>
+      </c>
+      <c r="Q103">
+        <v>0</v>
+      </c>
+      <c r="R103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18">
       <c r="A104">
         <v>6139</v>
       </c>
       <c r="B104" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -5313,13 +6299,22 @@
       <c r="O104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P104">
+        <v>0</v>
+      </c>
+      <c r="Q104">
+        <v>0</v>
+      </c>
+      <c r="R104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18">
       <c r="A105">
         <v>6139</v>
       </c>
       <c r="B105" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C105">
         <v>2</v>
@@ -5360,13 +6355,22 @@
       <c r="O105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P105">
+        <v>0</v>
+      </c>
+      <c r="Q105">
+        <v>0</v>
+      </c>
+      <c r="R105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18">
       <c r="A106">
         <v>6139</v>
       </c>
       <c r="B106" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C106">
         <v>3</v>
@@ -5407,13 +6411,22 @@
       <c r="O106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P106">
+        <v>0</v>
+      </c>
+      <c r="Q106">
+        <v>0</v>
+      </c>
+      <c r="R106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18">
       <c r="A107">
         <v>6139</v>
       </c>
       <c r="B107" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C107">
         <v>4</v>
@@ -5454,13 +6467,22 @@
       <c r="O107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P107">
+        <v>0</v>
+      </c>
+      <c r="Q107">
+        <v>0</v>
+      </c>
+      <c r="R107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18">
       <c r="A108">
         <v>6139</v>
       </c>
       <c r="B108" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C108">
         <v>5</v>
@@ -5501,13 +6523,22 @@
       <c r="O108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P108">
+        <v>0</v>
+      </c>
+      <c r="Q108">
+        <v>0</v>
+      </c>
+      <c r="R108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18">
       <c r="A109">
         <v>6139</v>
       </c>
       <c r="B109" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C109">
         <v>6</v>
@@ -5548,13 +6579,22 @@
       <c r="O109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P109">
+        <v>0</v>
+      </c>
+      <c r="Q109">
+        <v>0</v>
+      </c>
+      <c r="R109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18">
       <c r="A110">
         <v>6139</v>
       </c>
       <c r="B110" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C110">
         <v>7</v>
@@ -5595,13 +6635,22 @@
       <c r="O110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P110">
+        <v>0</v>
+      </c>
+      <c r="Q110">
+        <v>0</v>
+      </c>
+      <c r="R110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18">
       <c r="A111">
         <v>6139</v>
       </c>
       <c r="B111" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C111">
         <v>8</v>
@@ -5642,13 +6691,22 @@
       <c r="O111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P111">
+        <v>0</v>
+      </c>
+      <c r="Q111">
+        <v>0</v>
+      </c>
+      <c r="R111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18">
       <c r="A112">
         <v>6139</v>
       </c>
       <c r="B112" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C112">
         <v>9</v>
@@ -5689,13 +6747,22 @@
       <c r="O112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P112">
+        <v>0</v>
+      </c>
+      <c r="Q112">
+        <v>0</v>
+      </c>
+      <c r="R112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18">
       <c r="A113">
         <v>6139</v>
       </c>
       <c r="B113" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C113">
         <v>10</v>
@@ -5736,13 +6803,22 @@
       <c r="O113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P113">
+        <v>0</v>
+      </c>
+      <c r="Q113">
+        <v>0</v>
+      </c>
+      <c r="R113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18">
       <c r="A114">
         <v>6139</v>
       </c>
       <c r="B114" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C114">
         <v>11</v>
@@ -5783,13 +6859,22 @@
       <c r="O114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P114">
+        <v>0</v>
+      </c>
+      <c r="Q114">
+        <v>0</v>
+      </c>
+      <c r="R114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18">
       <c r="A115">
         <v>6139</v>
       </c>
       <c r="B115" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C115">
         <v>12</v>
@@ -5830,13 +6915,22 @@
       <c r="O115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P115">
+        <v>0</v>
+      </c>
+      <c r="Q115">
+        <v>0</v>
+      </c>
+      <c r="R115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18">
       <c r="A116">
         <v>6139</v>
       </c>
       <c r="B116" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -5877,13 +6971,22 @@
       <c r="O116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P116">
+        <v>0</v>
+      </c>
+      <c r="Q116">
+        <v>0</v>
+      </c>
+      <c r="R116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18">
       <c r="A117">
         <v>6139</v>
       </c>
       <c r="B117" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C117">
         <v>2</v>
@@ -5924,13 +7027,22 @@
       <c r="O117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P117">
+        <v>0</v>
+      </c>
+      <c r="Q117">
+        <v>0</v>
+      </c>
+      <c r="R117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18">
       <c r="A118">
         <v>6139</v>
       </c>
       <c r="B118" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C118">
         <v>3</v>
@@ -5969,6 +7081,15 @@
         <v>0</v>
       </c>
       <c r="O118">
+        <v>0</v>
+      </c>
+      <c r="P118">
+        <v>0</v>
+      </c>
+      <c r="Q118">
+        <v>0</v>
+      </c>
+      <c r="R118">
         <v>0</v>
       </c>
     </row>
@@ -5978,24 +7099,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" xr3:uid="{842E5F09-E766-5B8D-85AF-A39847EA96FD}"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
